--- a/assets/docs/Listado de maquinaria, herramental y epp giirsu.xlsx
+++ b/assets/docs/Listado de maquinaria, herramental y epp giirsu.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="84">
   <si>
     <t>Listado Maquinarias, Herramental y EPPs GIIRSU</t>
   </si>
@@ -533,12 +533,21 @@
   <si>
     <t>Mascara protección tipo burbuja</t>
   </si>
+  <si>
+    <t xml:space="preserve">Vehículo con carrocería mudancera </t>
+  </si>
+  <si>
+    <t>Carrocería Mudancera para camioneta F100, apto para recolección diferenciada</t>
+  </si>
+  <si>
+    <t>Carrocerías Lugano</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -608,6 +617,11 @@
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Söhne"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="7">
@@ -699,7 +713,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="51">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -734,6 +748,9 @@
     <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="5" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -745,9 +762,6 @@
     <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="5" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
@@ -758,7 +772,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -817,6 +831,24 @@
     <xf borderId="5" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="6" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -841,7 +873,7 @@
     <xdr:ext cx="990600" cy="1143000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image26.jpg"/>
+        <xdr:cNvPr id="0" name="image4.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -869,7 +901,7 @@
     <xdr:ext cx="1504950" cy="1304925"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image22.jpg" title="Imagen"/>
+        <xdr:cNvPr id="0" name="image14.jpg" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -897,7 +929,7 @@
     <xdr:ext cx="1590675" cy="1285875"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image9.jpg"/>
+        <xdr:cNvPr id="0" name="image5.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -953,7 +985,7 @@
     <xdr:ext cx="1743075" cy="1143000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image20.jpg"/>
+        <xdr:cNvPr id="0" name="image1.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -981,7 +1013,7 @@
     <xdr:ext cx="990600" cy="1028700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image15.jpg"/>
+        <xdr:cNvPr id="0" name="image6.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1009,7 +1041,7 @@
     <xdr:ext cx="1733550" cy="1143000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image6.jpg" title="Imagen"/>
+        <xdr:cNvPr id="0" name="image23.jpg" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1037,7 +1069,7 @@
     <xdr:ext cx="666750" cy="1304925"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image25.jpg" title="Imagen"/>
+        <xdr:cNvPr id="0" name="image10.jpg" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1065,7 +1097,7 @@
     <xdr:ext cx="1362075" cy="1285875"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image18.jpg" title="Imagen"/>
+        <xdr:cNvPr id="0" name="image8.jpg" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1093,7 +1125,7 @@
     <xdr:ext cx="2095500" cy="1133475"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image19.jpg"/>
+        <xdr:cNvPr id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1121,7 +1153,7 @@
     <xdr:ext cx="1657350" cy="1238250"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image11.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1149,7 +1181,7 @@
     <xdr:ext cx="1943100" cy="1285875"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image8.jpg"/>
+        <xdr:cNvPr id="0" name="image7.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1177,7 +1209,7 @@
     <xdr:ext cx="2447925" cy="1181100"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image17.png" title="Imagen"/>
+        <xdr:cNvPr id="0" name="image9.png" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1205,7 +1237,7 @@
     <xdr:ext cx="1104900" cy="1181100"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image14.png" title="Imagen"/>
+        <xdr:cNvPr id="0" name="image25.png" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1233,7 +1265,7 @@
     <xdr:ext cx="1743075" cy="1181100"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.png" title="Imagen"/>
+        <xdr:cNvPr id="0" name="image12.png" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1261,7 +1293,7 @@
     <xdr:ext cx="1143000" cy="1238250"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image5.png" title="Imagen"/>
+        <xdr:cNvPr id="0" name="image18.png" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1289,7 +1321,7 @@
     <xdr:ext cx="2190750" cy="1295400"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image10.jpg" title="Imagen"/>
+        <xdr:cNvPr id="0" name="image16.jpg" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1345,7 +1377,7 @@
     <xdr:ext cx="1066800" cy="1990725"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image16.png" title="Imagen"/>
+        <xdr:cNvPr id="0" name="image13.png" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1373,7 +1405,7 @@
     <xdr:ext cx="1143000" cy="2333625"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Imagen"/>
+        <xdr:cNvPr id="0" name="image15.png" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1401,7 +1433,7 @@
     <xdr:ext cx="1295400" cy="2171700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image12.png" title="Imagen"/>
+        <xdr:cNvPr id="0" name="image17.png" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1429,7 +1461,7 @@
     <xdr:ext cx="2228850" cy="1390650"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image7.jpg"/>
+        <xdr:cNvPr id="0" name="image19.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1457,7 +1489,7 @@
     <xdr:ext cx="1352550" cy="1390650"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image24.jpg"/>
+        <xdr:cNvPr id="0" name="image22.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1485,7 +1517,7 @@
     <xdr:ext cx="1209675" cy="1390650"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image11.jpg"/>
+        <xdr:cNvPr id="0" name="image20.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1513,7 +1545,7 @@
     <xdr:ext cx="971550" cy="1390650"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image13.jpg"/>
+        <xdr:cNvPr id="0" name="image24.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1541,11 +1573,39 @@
     <xdr:ext cx="942975" cy="1390650"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image23.jpg"/>
+        <xdr:cNvPr id="0" name="image26.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip cstate="print" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2933700" cy="1838325"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image27.png"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId27"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1897,26 +1957,26 @@
     </row>
     <row r="5" ht="109.5" customHeight="1">
       <c r="A5" s="15">
-        <v>3.0</v>
-      </c>
-      <c r="B5" s="15" t="s">
+        <v>1.0</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="15" t="s">
+      <c r="F5" s="17"/>
+      <c r="G5" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="17"/>
-      <c r="I5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="19"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
@@ -1925,28 +1985,28 @@
     </row>
     <row r="6" ht="109.5" customHeight="1">
       <c r="A6" s="15">
-        <v>35.0</v>
-      </c>
-      <c r="B6" s="15" t="s">
+        <v>2.0</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="17"/>
-      <c r="I6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="19"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
@@ -1955,24 +2015,24 @@
     </row>
     <row r="7" ht="109.5" customHeight="1">
       <c r="A7" s="15">
-        <v>37.0</v>
-      </c>
-      <c r="B7" s="15" t="s">
+        <v>3.0</v>
+      </c>
+      <c r="B7" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16" t="s">
+      <c r="E7" s="17"/>
+      <c r="F7" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="18"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="19"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
@@ -1981,28 +2041,28 @@
     </row>
     <row r="8" ht="109.5" customHeight="1">
       <c r="A8" s="15">
-        <v>38.0</v>
-      </c>
-      <c r="B8" s="15" t="s">
+        <v>4.0</v>
+      </c>
+      <c r="B8" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="17"/>
-      <c r="I8" s="16" t="s">
+      <c r="H8" s="18"/>
+      <c r="I8" s="17" t="s">
         <v>33</v>
       </c>
       <c r="N8" s="4"/>
@@ -2012,14 +2072,16 @@
       <c r="R8" s="4"/>
     </row>
     <row r="9" ht="102.75" customHeight="1">
-      <c r="A9" s="15"/>
-      <c r="B9" s="19" t="s">
+      <c r="A9" s="15">
+        <v>5.0</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="15" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="20" t="s">
@@ -2028,11 +2090,11 @@
       <c r="F9" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="15" t="s">
         <v>36</v>
       </c>
       <c r="H9" s="22"/>
-      <c r="I9" s="18"/>
+      <c r="I9" s="19"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
@@ -2040,7 +2102,9 @@
       <c r="R9" s="4"/>
     </row>
     <row r="10" ht="102.75" customHeight="1">
-      <c r="A10" s="23"/>
+      <c r="A10" s="23">
+        <v>6.0</v>
+      </c>
       <c r="B10" s="24" t="s">
         <v>19</v>
       </c>
@@ -2080,7 +2144,9 @@
       <c r="X10" s="27"/>
     </row>
     <row r="11" ht="102.75" customHeight="1">
-      <c r="A11" s="23"/>
+      <c r="A11" s="23">
+        <v>7.0</v>
+      </c>
       <c r="B11" s="24" t="s">
         <v>19</v>
       </c>
@@ -2120,7 +2186,9 @@
       <c r="X11" s="27"/>
     </row>
     <row r="12" ht="102.75" customHeight="1">
-      <c r="A12" s="23"/>
+      <c r="A12" s="23">
+        <v>8.0</v>
+      </c>
       <c r="B12" s="24" t="s">
         <v>19</v>
       </c>
@@ -2159,26 +2227,26 @@
     </row>
     <row r="13" ht="109.5" customHeight="1">
       <c r="A13" s="15">
-        <v>45.0</v>
-      </c>
-      <c r="B13" s="15" t="s">
+        <v>9.0</v>
+      </c>
+      <c r="B13" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="G13" s="15"/>
+      <c r="G13" s="16"/>
       <c r="H13" s="22"/>
-      <c r="I13" s="18" t="s">
+      <c r="I13" s="19" t="s">
         <v>47</v>
       </c>
       <c r="N13" s="4"/>
@@ -2189,24 +2257,24 @@
     </row>
     <row r="14" ht="109.5" customHeight="1">
       <c r="A14" s="15">
-        <v>46.0</v>
-      </c>
-      <c r="B14" s="15" t="s">
+        <v>10.0</v>
+      </c>
+      <c r="B14" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="15"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="16"/>
       <c r="H14" s="22"/>
-      <c r="I14" s="18" t="s">
+      <c r="I14" s="19" t="s">
         <v>47</v>
       </c>
       <c r="N14" s="4"/>
@@ -2217,26 +2285,26 @@
     </row>
     <row r="15" ht="109.5" customHeight="1">
       <c r="A15" s="15">
-        <v>47.0</v>
-      </c>
-      <c r="B15" s="15" t="s">
+        <v>11.0</v>
+      </c>
+      <c r="B15" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="15"/>
+      <c r="G15" s="16"/>
       <c r="H15" s="22"/>
-      <c r="I15" s="18" t="s">
+      <c r="I15" s="19" t="s">
         <v>47</v>
       </c>
       <c r="N15" s="4"/>
@@ -2247,26 +2315,26 @@
     </row>
     <row r="16" ht="109.5" customHeight="1">
       <c r="A16" s="15">
-        <v>48.0</v>
-      </c>
-      <c r="B16" s="15" t="s">
+        <v>12.0</v>
+      </c>
+      <c r="B16" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="G16" s="15"/>
+      <c r="G16" s="16"/>
       <c r="H16" s="22"/>
-      <c r="I16" s="18" t="s">
+      <c r="I16" s="19" t="s">
         <v>47</v>
       </c>
       <c r="N16" s="4"/>
@@ -2277,26 +2345,26 @@
     </row>
     <row r="17" ht="109.5" customHeight="1">
       <c r="A17" s="15">
-        <v>49.0</v>
-      </c>
-      <c r="B17" s="15" t="s">
+        <v>13.0</v>
+      </c>
+      <c r="B17" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="F17" s="16"/>
-      <c r="G17" s="15" t="s">
+      <c r="F17" s="17"/>
+      <c r="G17" s="16" t="s">
         <v>54</v>
       </c>
       <c r="H17" s="22"/>
-      <c r="I17" s="18"/>
+      <c r="I17" s="19"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
@@ -2305,26 +2373,26 @@
     </row>
     <row r="18" ht="109.5" customHeight="1">
       <c r="A18" s="15">
-        <v>51.0</v>
-      </c>
-      <c r="B18" s="15" t="s">
+        <v>14.0</v>
+      </c>
+      <c r="B18" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="15" t="s">
+      <c r="F18" s="17"/>
+      <c r="G18" s="16" t="s">
         <v>54</v>
       </c>
       <c r="H18" s="22"/>
-      <c r="I18" s="18"/>
+      <c r="I18" s="19"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
@@ -2333,24 +2401,24 @@
     </row>
     <row r="19" ht="109.5" customHeight="1">
       <c r="A19" s="15">
-        <v>52.0</v>
-      </c>
-      <c r="B19" s="15" t="s">
+        <v>15.0</v>
+      </c>
+      <c r="B19" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="F19" s="16"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="18"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="19"/>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
@@ -2359,26 +2427,26 @@
     </row>
     <row r="20" ht="109.5" customHeight="1">
       <c r="A20" s="15">
-        <v>53.0</v>
-      </c>
-      <c r="B20" s="15" t="s">
+        <v>16.0</v>
+      </c>
+      <c r="B20" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="F20" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="G20" s="15"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="18"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="19"/>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
@@ -2387,26 +2455,26 @@
     </row>
     <row r="21" ht="109.5" customHeight="1">
       <c r="A21" s="15">
-        <v>54.0</v>
-      </c>
-      <c r="B21" s="15" t="s">
+        <v>17.0</v>
+      </c>
+      <c r="B21" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="F21" s="16" t="s">
+      <c r="F21" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="G21" s="15"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="18"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="19"/>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
@@ -2415,15 +2483,15 @@
     </row>
     <row r="22" ht="174.75" customHeight="1">
       <c r="A22" s="15">
-        <v>56.0</v>
-      </c>
-      <c r="B22" s="15" t="s">
+        <v>18.0</v>
+      </c>
+      <c r="B22" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E22" s="32" t="s">
@@ -2432,9 +2500,9 @@
       <c r="F22" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="G22" s="15"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="18"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="19"/>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
@@ -2443,15 +2511,15 @@
     </row>
     <row r="23" ht="209.25" customHeight="1">
       <c r="A23" s="15">
-        <v>57.0</v>
-      </c>
-      <c r="B23" s="19" t="s">
+        <v>19.0</v>
+      </c>
+      <c r="B23" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="15" t="s">
         <v>2</v>
       </c>
       <c r="E23" s="33" t="s">
@@ -2460,9 +2528,9 @@
       <c r="F23" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="G23" s="15"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="18"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="19"/>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
@@ -2471,15 +2539,15 @@
     </row>
     <row r="24" ht="209.25" customHeight="1">
       <c r="A24" s="15">
-        <v>58.0</v>
-      </c>
-      <c r="B24" s="19" t="s">
+        <v>20.0</v>
+      </c>
+      <c r="B24" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="15" t="s">
         <v>2</v>
       </c>
       <c r="E24" s="35" t="s">
@@ -2488,9 +2556,9 @@
       <c r="F24" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="G24" s="15"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="18"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="19"/>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
@@ -2499,15 +2567,15 @@
     </row>
     <row r="25" ht="209.25" customHeight="1">
       <c r="A25" s="15">
-        <v>59.0</v>
-      </c>
-      <c r="B25" s="19" t="s">
+        <v>21.0</v>
+      </c>
+      <c r="B25" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="15" t="s">
         <v>2</v>
       </c>
       <c r="E25" s="37" t="s">
@@ -2516,9 +2584,9 @@
       <c r="F25" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="G25" s="15"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="18"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="19"/>
       <c r="K25" s="38" t="s">
         <v>69</v>
       </c>
@@ -2530,26 +2598,26 @@
     </row>
     <row r="26" ht="109.5" customHeight="1">
       <c r="A26" s="15">
-        <v>60.0</v>
-      </c>
-      <c r="B26" s="15" t="s">
+        <v>22.0</v>
+      </c>
+      <c r="B26" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="17" t="s">
         <v>70</v>
       </c>
       <c r="F26" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="G26" s="15"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="18"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="19"/>
       <c r="K26" s="40"/>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
@@ -2559,26 +2627,26 @@
     </row>
     <row r="27" ht="109.5" customHeight="1">
       <c r="A27" s="15">
-        <v>61.0</v>
-      </c>
-      <c r="B27" s="15" t="s">
+        <v>23.0</v>
+      </c>
+      <c r="B27" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D27" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="17" t="s">
         <v>72</v>
       </c>
       <c r="F27" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="G27" s="15"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="18"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="19"/>
       <c r="K27" s="38"/>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
@@ -2588,28 +2656,28 @@
     </row>
     <row r="28" ht="109.5" customHeight="1">
       <c r="A28" s="42">
-        <v>62.0</v>
-      </c>
-      <c r="B28" s="15" t="s">
+        <v>24.0</v>
+      </c>
+      <c r="B28" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="D28" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="F28" s="16" t="s">
+      <c r="F28" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="G28" s="15" t="s">
+      <c r="G28" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="H28" s="17"/>
-      <c r="I28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="19"/>
       <c r="K28" s="40"/>
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
@@ -2619,28 +2687,28 @@
     </row>
     <row r="29" ht="109.5" customHeight="1">
       <c r="A29" s="42">
-        <v>63.0</v>
-      </c>
-      <c r="B29" s="15" t="s">
+        <v>25.0</v>
+      </c>
+      <c r="B29" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C29" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="15" t="s">
+      <c r="D29" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="F29" s="16" t="s">
+      <c r="F29" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="G29" s="15" t="s">
+      <c r="G29" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="H29" s="17"/>
-      <c r="I29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="19"/>
       <c r="K29" s="38"/>
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
@@ -2650,44 +2718,58 @@
     </row>
     <row r="30" ht="109.5" customHeight="1">
       <c r="A30" s="42">
-        <v>64.0</v>
-      </c>
-      <c r="B30" s="15" t="s">
+        <v>26.0</v>
+      </c>
+      <c r="B30" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="F30" s="16" t="s">
+      <c r="F30" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="G30" s="15" t="s">
+      <c r="G30" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="H30" s="17"/>
-      <c r="I30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="19"/>
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="4"/>
+    <row r="31" ht="144.75" customHeight="1">
+      <c r="A31" s="43">
+        <v>27.0</v>
+      </c>
+      <c r="B31" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="F31" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="G31" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="H31" s="18"/>
+      <c r="I31" s="48"/>
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
       <c r="P31" s="4"/>
@@ -3767,10 +3849,10 @@
       <c r="R98" s="4"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="43"/>
-      <c r="B99" s="43"/>
-      <c r="C99" s="43"/>
-      <c r="D99" s="43"/>
+      <c r="A99" s="49"/>
+      <c r="B99" s="49"/>
+      <c r="C99" s="49"/>
+      <c r="D99" s="49"/>
       <c r="E99" s="4"/>
       <c r="F99" s="10"/>
       <c r="G99" s="9"/>
@@ -3819,7 +3901,7 @@
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
-      <c r="E102" s="44"/>
+      <c r="E102" s="50"/>
       <c r="F102" s="10"/>
       <c r="G102" s="9"/>
       <c r="H102" s="9"/>
@@ -3835,7 +3917,7 @@
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
-      <c r="E103" s="44"/>
+      <c r="E103" s="50"/>
       <c r="F103" s="10"/>
       <c r="G103" s="9"/>
       <c r="H103" s="9"/>
@@ -3851,7 +3933,7 @@
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
-      <c r="E104" s="44"/>
+      <c r="E104" s="50"/>
       <c r="F104" s="10"/>
       <c r="G104" s="9"/>
       <c r="H104" s="9"/>
@@ -3867,7 +3949,7 @@
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
-      <c r="E105" s="44"/>
+      <c r="E105" s="50"/>
       <c r="F105" s="10"/>
       <c r="G105" s="9"/>
       <c r="H105" s="9"/>
@@ -3883,7 +3965,7 @@
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
-      <c r="E106" s="44"/>
+      <c r="E106" s="50"/>
       <c r="F106" s="10"/>
       <c r="G106" s="9"/>
       <c r="H106" s="9"/>
@@ -3899,7 +3981,7 @@
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
-      <c r="E107" s="44"/>
+      <c r="E107" s="50"/>
       <c r="F107" s="10"/>
       <c r="G107" s="9"/>
       <c r="H107" s="9"/>
@@ -3915,7 +3997,7 @@
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
-      <c r="E108" s="44"/>
+      <c r="E108" s="50"/>
       <c r="F108" s="10"/>
       <c r="G108" s="9"/>
       <c r="H108" s="9"/>
@@ -3931,7 +4013,7 @@
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
-      <c r="E109" s="44"/>
+      <c r="E109" s="50"/>
       <c r="F109" s="10"/>
       <c r="G109" s="9"/>
       <c r="H109" s="9"/>
@@ -3947,7 +4029,7 @@
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
-      <c r="E110" s="44"/>
+      <c r="E110" s="50"/>
       <c r="F110" s="10"/>
       <c r="G110" s="9"/>
       <c r="H110" s="9"/>
@@ -3963,7 +4045,7 @@
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
-      <c r="E111" s="44"/>
+      <c r="E111" s="50"/>
       <c r="F111" s="10"/>
       <c r="G111" s="9"/>
       <c r="H111" s="9"/>
@@ -3979,7 +4061,7 @@
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
-      <c r="E112" s="44"/>
+      <c r="E112" s="50"/>
       <c r="F112" s="10"/>
       <c r="G112" s="9"/>
       <c r="H112" s="9"/>
@@ -3995,7 +4077,7 @@
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
-      <c r="E113" s="44"/>
+      <c r="E113" s="50"/>
       <c r="F113" s="10"/>
       <c r="G113" s="9"/>
       <c r="H113" s="9"/>
@@ -4011,7 +4093,7 @@
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
-      <c r="E114" s="44"/>
+      <c r="E114" s="50"/>
       <c r="F114" s="10"/>
       <c r="G114" s="9"/>
       <c r="H114" s="9"/>
@@ -4027,7 +4109,7 @@
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
-      <c r="E115" s="44"/>
+      <c r="E115" s="50"/>
       <c r="F115" s="10"/>
       <c r="G115" s="9"/>
       <c r="H115" s="9"/>
@@ -4043,7 +4125,7 @@
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
-      <c r="E116" s="44"/>
+      <c r="E116" s="50"/>
       <c r="F116" s="10"/>
       <c r="G116" s="9"/>
       <c r="H116" s="9"/>
@@ -4059,7 +4141,7 @@
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
-      <c r="E117" s="44"/>
+      <c r="E117" s="50"/>
       <c r="F117" s="10"/>
       <c r="G117" s="9"/>
       <c r="H117" s="9"/>
@@ -4075,7 +4157,7 @@
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
-      <c r="E118" s="44"/>
+      <c r="E118" s="50"/>
       <c r="F118" s="10"/>
       <c r="G118" s="9"/>
       <c r="H118" s="9"/>
